--- a/Информация о проходах/Никитина Ирина Александровна.xlsx
+++ b/Информация о проходах/Никитина Ирина Александровна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 07:38:45</t>
+          <t>2024-05-31 18:11:15</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 17:06:17</t>
+          <t>2024-06-03 07:38:45</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-04 07:35:30</t>
+          <t>2024-06-03 17:06:17</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-04 12:23:51</t>
+          <t>2024-06-04 07:35:30</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,81 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-04 12:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Турникеты № 1+2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2024-06-04 12:41:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-04 17:01:58</t>
         </is>
       </c>
     </row>

--- a/Информация о проходах/Никитина Ирина Александровна.xlsx
+++ b/Информация о проходах/Никитина Ирина Александровна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +439,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-31 18:11:15</t>
+          <t>2024-06-03 07:38:45</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 07:38:45</t>
+          <t>2024-06-03 17:06:17</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-03 17:06:17</t>
+          <t>2024-06-04 07:35:30</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-04 07:35:30</t>
+          <t>2024-06-04 12:23:51</t>
         </is>
       </c>
     </row>
@@ -567,17 +567,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-04 12:23:51</t>
+          <t>2024-06-04 12:41:56</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-04 12:41:56</t>
+          <t>2024-06-04 17:01:58</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,1457 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-06-04 17:01:58</t>
+          <t>2024-06-05 07:43:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-05 07:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-05 17:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-06 07:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-06 17:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-07 07:35:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-07 12:17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-06-07 13:01:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-06-07 17:09:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-06-10 07:39:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-06-10 16:57:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-06-11 07:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-06-11 18:55:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-06-12 07:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-06-12 16:55:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-06-13 07:43:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-06-13 16:57:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-06-17 07:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-06-17 17:03:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-06-18 07:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-06-18 16:59:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-06-19 07:31:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-06-19 17:01:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-06-20 07:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-06-20 16:59:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-06-21 07:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-06-21 16:59:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-06-24 07:33:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-06-24 07:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-06-24 17:01:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-06-25 07:36:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-06-25 17:01:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-06-26 07:32:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-06-26 18:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-06-27 07:45:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-06-27 17:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-06-28 07:32:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-06-28 17:01:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-06-29 07:45:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-06-29 12:03:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-07-01 07:46:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-07-01 07:46:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-07-01 16:59:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-07-02 07:41:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:59:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Никитина Ирина Александровна</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Старший химик ФХЛ</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Физико-Химическая лаборатория</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-07-03 07:41:34</t>
         </is>
       </c>
     </row>
